--- a/data/trans_orig/IP34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP34-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{758D2AD3-20EB-427F-B582-C755B517B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B3B94E-9041-434C-AA96-84212A2762A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4CD5FF63-7CE2-4CB9-82AB-5D70D6F5E350}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ED7789E8-BB42-49AD-A91A-A68C4DADDD1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="272">
   <si>
     <t>Adultos según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,69 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -85,72 +148,129 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>Extranjero</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
@@ -160,121 +280,58 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -286,121 +343,175 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
     <t>Adultos según su lugar de nacimiento en 2015 (Tasa respuesta: 99,58%)</t>
   </si>
   <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -409,114 +520,6 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
     <t>90,7%</t>
   </si>
   <si>
@@ -574,6 +577,45 @@
     <t>Adultos según su lugar de nacimiento en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>95,21%</t>
   </si>
   <si>
@@ -601,43 +643,121 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>92,26%</t>
@@ -667,121 +787,46 @@
     <t>93,67%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>93,68%</t>
@@ -809,48 +854,6 @@
   </si>
   <si>
     <t>94,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525FD4E7-18DC-471F-9AFD-16C70027745A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31C180A-3E8C-47B3-8C19-E6E228195505}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1356,155 +1359,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>205364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>201796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>407160</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>205364</v>
+        <v>33800</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>201796</v>
+        <v>23712</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>615</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>407160</v>
+        <v>57512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="7">
-        <v>33800</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7">
-        <v>23712</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="7">
-        <v>62</v>
-      </c>
-      <c r="N6" s="7">
-        <v>57512</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,13 +1522,13 @@
         <v>239164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>339</v>
@@ -1534,13 +1537,13 @@
         <v>225508</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>677</v>
@@ -1549,165 +1552,165 @@
         <v>464672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>220220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>207572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>427793</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>248935</v>
+        <v>21771</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="I9" s="7">
-        <v>231583</v>
+        <v>21900</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="7">
         <v>45</v>
       </c>
-      <c r="M9" s="7">
-        <v>714</v>
-      </c>
       <c r="N9" s="7">
-        <v>480517</v>
+        <v>43670</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>23417</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>24828</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>48246</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>57</v>
@@ -1719,204 +1722,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="D11" s="7">
-        <v>272352</v>
+        <v>241991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>766</v>
+        <v>656</v>
       </c>
       <c r="N11" s="7">
-        <v>528763</v>
+        <v>471463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>994</v>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>248935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>231583</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>480517</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>220220</v>
+        <v>23417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>207572</v>
+        <v>24828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>611</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>427793</v>
+        <v>48246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>21771</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>21900</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>43670</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,204 +1928,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="D15" s="7">
-        <v>241991</v>
+        <v>272352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I15" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>656</v>
+        <v>766</v>
       </c>
       <c r="N15" s="7">
-        <v>471463</v>
+        <v>528763</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>674519</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>640951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1315470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>995</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>674519</v>
+        <v>78988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>945</v>
+        <v>80</v>
       </c>
       <c r="I17" s="7">
-        <v>640951</v>
+        <v>70440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1940</v>
+        <v>159</v>
       </c>
       <c r="N17" s="7">
-        <v>1315470</v>
+        <v>149428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>78988</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>70440</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>149428</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2140,13 @@
         <v>753507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1025</v>
@@ -2152,13 +2155,13 @@
         <v>711391</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2099</v>
@@ -2167,13 +2170,13 @@
         <v>1464898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A860572-A2F3-49E4-87E6-B9741A484F5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E43DB7-F451-4471-99A2-4538C1265EE7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2209,7 +2212,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2306,155 +2309,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>191133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>179964</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>371097</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>191133</v>
+        <v>22030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
-        <v>297</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>179964</v>
+        <v>21304</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>591</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>371097</v>
+        <v>43334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>22030</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>21304</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>43334</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2472,13 @@
         <v>213163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>324</v>
@@ -2484,13 +2487,13 @@
         <v>201268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>643</v>
@@ -2499,168 +2502,168 @@
         <v>414431</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>227764</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>216882</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>444646</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>256661</v>
+        <v>22288</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="H9" s="7">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>242721</v>
+        <v>18451</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M9" s="7">
-        <v>702</v>
+        <v>46</v>
       </c>
       <c r="N9" s="7">
-        <v>499382</v>
+        <v>40739</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>24968</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>25049</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>50017</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,204 +2672,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="D11" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="I11" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="N11" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>994</v>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>256661</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>242721</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>499382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>227764</v>
+        <v>24968</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
-        <v>338</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>216882</v>
+        <v>25049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
-        <v>675</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>444646</v>
+        <v>50017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>22288</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>18451</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>40739</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,204 +2878,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="D15" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="I15" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="N15" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>675558</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>639567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1968</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1315125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>987</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7">
-        <v>675558</v>
+        <v>69286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
-        <v>981</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>639567</v>
+        <v>64804</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
-        <v>1968</v>
+        <v>149</v>
       </c>
       <c r="N17" s="7">
-        <v>1315125</v>
+        <v>134090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>69286</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>64804</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>134090</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3090,13 @@
         <v>744844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1056</v>
@@ -3102,13 +3105,13 @@
         <v>704371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2117</v>
@@ -3117,13 +3120,13 @@
         <v>1449215</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3039187F-4F59-4FE9-9A5F-384DDFB1F201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660EE496-2F08-4573-88BD-D4E659DABB51}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3159,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3256,155 +3259,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>112286</v>
+        <v>5652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>98848</v>
+        <v>4601</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>403</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>211134</v>
+        <v>10253</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>354</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4601</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>354</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M5" s="7">
-        <v>22</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10253</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>112286</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="7">
+        <v>189</v>
+      </c>
+      <c r="I6" s="7">
+        <v>98848</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>354</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>197</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="N6" s="7">
-        <v>354</v>
+        <v>211134</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3422,13 @@
         <v>117938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -3434,13 +3437,13 @@
         <v>103803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>426</v>
@@ -3449,168 +3452,168 @@
         <v>221741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>438</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>371523</v>
+        <v>7295</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
-        <v>421</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>323583</v>
+        <v>10549</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
-        <v>859</v>
+        <v>27</v>
       </c>
       <c r="N8" s="7">
-        <v>695106</v>
+        <v>17844</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>25944</v>
+        <v>1714</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2082</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="7">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7">
-        <v>25102</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3795</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="M9" s="7">
-        <v>71</v>
-      </c>
-      <c r="N9" s="7">
-        <v>51047</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="D10" s="7">
-        <v>5243</v>
+        <v>196046</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="7">
+        <v>263</v>
+      </c>
+      <c r="I10" s="7">
+        <v>185637</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>520</v>
+      </c>
+      <c r="N10" s="7">
+        <v>381684</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2956</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="M10" s="7">
-        <v>12</v>
-      </c>
-      <c r="N10" s="7">
-        <v>8198</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,180 +3622,180 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N11" s="7">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>994</v>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>196046</v>
+        <v>25944</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="7">
+        <v>38</v>
+      </c>
+      <c r="I12" s="7">
+        <v>25102</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H12" s="7">
-        <v>263</v>
-      </c>
-      <c r="I12" s="7">
-        <v>185637</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>71</v>
+      </c>
+      <c r="N12" s="7">
+        <v>51047</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="M12" s="7">
-        <v>520</v>
-      </c>
-      <c r="N12" s="7">
-        <v>381684</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5243</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2956</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
-        <v>7295</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10549</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="N13" s="7">
+        <v>8198</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="M13" s="7">
-        <v>27</v>
-      </c>
-      <c r="N13" s="7">
-        <v>17844</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>438</v>
       </c>
       <c r="D14" s="7">
-        <v>1714</v>
+        <v>371523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="I14" s="7">
-        <v>2082</v>
+        <v>323583</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>243</v>
@@ -3804,19 +3807,19 @@
         <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>859</v>
       </c>
       <c r="N14" s="7">
-        <v>3795</v>
+        <v>695106</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,204 +3828,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D15" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I15" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N15" s="7">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>909</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>679856</v>
+        <v>38892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
-        <v>873</v>
+        <v>62</v>
       </c>
       <c r="I16" s="7">
-        <v>608069</v>
+        <v>40252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="M16" s="7">
-        <v>1782</v>
+        <v>120</v>
       </c>
       <c r="N16" s="7">
-        <v>1287925</v>
+        <v>79144</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>38892</v>
+        <v>6956</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5391</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H17" s="7">
-        <v>62</v>
-      </c>
-      <c r="I17" s="7">
-        <v>40252</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M17" s="7">
+        <v>18</v>
+      </c>
+      <c r="N17" s="7">
+        <v>12347</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" s="7">
-        <v>120</v>
-      </c>
-      <c r="N17" s="7">
-        <v>79144</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>909</v>
       </c>
       <c r="D18" s="7">
-        <v>6956</v>
+        <v>679856</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>873</v>
+      </c>
+      <c r="I18" s="7">
+        <v>608069</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5391</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>1782</v>
       </c>
       <c r="N18" s="7">
-        <v>12347</v>
+        <v>1287925</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>269</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4040,13 @@
         <v>725704</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>943</v>
@@ -4052,13 +4055,13 @@
         <v>653712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1920</v>
@@ -4067,13 +4070,13 @@
         <v>1379416</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
